--- a/biology/Zoologie/Colibri_thalassin/Colibri_thalassin.xlsx
+++ b/biology/Zoologie/Colibri_thalassin/Colibri_thalassin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colibri thalassinus
 Le Colibri thalassin (Colibri thalassinus (Swainson, 1827)) est une espèce d'oiseau appartenant à la famille des Trochilidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 10,5 cm de longueur. Il ne présente pas de dimorphisme sexuel. Il possède un plumage essentiellement vert avec des joues bleu violacé et une bande sombre sur la queue.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les boisements clairs.
 </t>
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle émet son chant répétitif du haut d'un arbre.
 </t>
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson il existe 5 sous-espèces :
 Colibri thalassinus cabanidis (Heine, 1863) ;
